--- a/NEC_melt_temp.xlsx
+++ b/NEC_melt_temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brycecorbett/Desktop/Shedd_Aquarium/Projects/Acropora22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97ABA08-7CD1-5A43-BF0D-DA057368ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D24D061-C776-AE41-ACFB-033D498A6D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="2100" windowWidth="27240" windowHeight="16440" xr2:uid="{B9A4DFD5-1A7B-1641-BE85-B855DAECB428}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="20">
   <si>
     <t>NEC</t>
   </si>
@@ -75,6 +75,24 @@
   </si>
   <si>
     <t xml:space="preserve">CAM = </t>
+  </si>
+  <si>
+    <t>check out amp curves</t>
+  </si>
+  <si>
+    <t>10 cycles from rest of samples</t>
+  </si>
+  <si>
+    <t>chk amplification curves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amp curve </t>
+  </si>
+  <si>
+    <t>Rerun 01/18 plate</t>
+  </si>
+  <si>
+    <t>NTC amplified, needs to be redone</t>
   </si>
 </sst>
 </file>
@@ -116,10 +134,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,12 +461,13 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -468,20 +488,26 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
+      <c r="A2" s="1">
+        <v>44944</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
         <v>32.590000000000003</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2">
         <v>74.95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -491,19 +517,19 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>32.270000000000003</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
         <v>74.95</v>
       </c>
       <c r="H3" t="s">
@@ -528,6 +554,9 @@
       </c>
       <c r="F4">
         <v>83.31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -551,70 +580,70 @@
       <c r="A6" s="1">
         <v>44938</v>
       </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="2">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
         <v>32.590000000000003</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
         <v>74.8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>32.630000000000003</v>
       </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
         <v>74.8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="3">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3">
         <v>34.411000000000001</v>
       </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
         <v>81.92</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="3">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3">
         <v>31.9</v>
       </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
         <v>84.97</v>
       </c>
     </row>
@@ -736,8 +765,11 @@
       <c r="F16">
         <v>68.37</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>77</v>
       </c>
@@ -754,7 +786,7 @@
         <v>82.83</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44938</v>
       </c>
@@ -764,34 +796,37 @@
       <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
         <v>63.53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>32.479999999999997</v>
       </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2">
         <v>74.760000000000005</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>8</v>
       </c>
@@ -808,7 +843,7 @@
         <v>59.99</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>8</v>
       </c>
@@ -825,7 +860,7 @@
         <v>63.53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44937</v>
       </c>
@@ -835,34 +870,34 @@
       <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>31.75</v>
       </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2">
         <v>74.94</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>31.83</v>
       </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2">
         <v>74.94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>8</v>
       </c>
@@ -879,7 +914,7 @@
         <v>63.34</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>8</v>
       </c>
@@ -896,78 +931,81 @@
         <v>78.099999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>45274</v>
       </c>
-      <c r="B26">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26">
+      <c r="B26" s="2">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2">
         <v>24.92</v>
       </c>
-      <c r="E26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26">
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2">
         <v>80.44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>24.49</v>
       </c>
-      <c r="E27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27">
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2">
         <v>81.819999999999993</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28">
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2">
         <v>19.100000000000001</v>
       </c>
-      <c r="E28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28">
+      <c r="E28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2">
         <v>83.75</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <v>6</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2">
         <v>20.16</v>
       </c>
-      <c r="E29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29">
+      <c r="E29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2">
         <v>67.459999999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>45261</v>
       </c>
@@ -987,7 +1025,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>6</v>
       </c>
@@ -1003,8 +1041,11 @@
       <c r="F31">
         <v>92.39</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>6</v>
       </c>
@@ -1021,7 +1062,7 @@
         <v>82.92</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>6</v>
       </c>
@@ -1038,21 +1079,24 @@
         <v>82.47</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>44945</v>
+      </c>
       <c r="B34">
         <v>10</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>32.56</v>
       </c>
-      <c r="E34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34">
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2">
         <v>87.17</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>10</v>
       </c>
@@ -1066,7 +1110,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>10</v>
       </c>
@@ -1080,7 +1124,7 @@
         <v>81.489999999999995</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>10</v>
       </c>
